--- a/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
+++ b/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
@@ -33,7 +33,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:area(lastCell="O2")</t>
+jx:area(lastCell="P2")</t>
         </r>
       </text>
     </comment>
@@ -46,7 +46,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="O2")</t>
+jx:each(items="reportList" var="obj" lastCell="P2")</t>
         </r>
       </text>
     </comment>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>货号</t>
   </si>
@@ -165,6 +165,14 @@
   </si>
   <si>
     <t>${obj.sumAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.inputTax}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -565,29 +573,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="15.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="22.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.75" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="7" max="8" width="10.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="22.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.75" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -610,31 +618,34 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -657,31 +668,34 @@
         <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -697,8 +711,9 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -714,8 +729,9 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -731,8 +747,9 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -748,8 +765,9 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -765,8 +783,9 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -782,8 +801,9 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -799,8 +819,9 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -816,13 +837,14 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
+++ b/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
@@ -33,7 +33,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:area(lastCell="P2")</t>
+jx:area(lastCell="O2")</t>
         </r>
       </text>
     </comment>
@@ -46,7 +46,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="P2")</t>
+jx:each(items="reportList" var="obj" lastCell="O2")</t>
         </r>
       </text>
     </comment>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>货号</t>
   </si>
@@ -165,14 +165,6 @@
   </si>
   <si>
     <t>${obj.sumAmount}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>税率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.inputTax}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -573,29 +565,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="15.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="22.875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="21.75" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.75" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -618,34 +610,31 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -668,34 +657,31 @@
         <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -711,9 +697,8 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -729,9 +714,8 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -747,9 +731,8 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -765,9 +748,8 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -783,9 +765,8 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -801,9 +782,8 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -819,9 +799,8 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -837,14 +816,13 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
+++ b/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22350" windowHeight="5730"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22350" windowHeight="5730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -172,6 +172,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,6 +264,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -567,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -576,14 +584,14 @@
     <col min="1" max="5" width="15.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="22.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="21.75" style="7" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="7" customWidth="1"/>
+    <col min="13" max="13" width="22.875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="21.75" style="7" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -609,28 +617,28 @@
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -656,28 +664,28 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -689,14 +697,14 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
@@ -706,14 +714,14 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -723,14 +731,14 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -740,14 +748,14 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -757,14 +765,14 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -774,14 +782,14 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -791,14 +799,14 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -808,14 +816,14 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -891,7 +899,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
+++ b/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22350" windowHeight="5730"/>
+    <workbookView windowWidth="24180" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -24,7 +19,7 @@
     <author>lijy02</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -32,12 +27,20 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>YSCGD:
-jx:area(lastCell="O2")</t>
+          <t xml:space="preserve">YSCGD:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell="O2")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,8 +48,16 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="O2")</t>
+          <t xml:space="preserve">YSCGD:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="reportList" var="obj" lastCell="O2")</t>
         </r>
       </text>
     </comment>
@@ -55,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>货号</t>
   </si>
@@ -66,10 +77,43 @@
     <t>条码</t>
   </si>
   <si>
+    <t>类别编码</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
     <t>单位</t>
   </si>
   <si>
-    <t>规格</t>
+    <t>调入箱数</t>
+  </si>
+  <si>
+    <t>调入数量</t>
+  </si>
+  <si>
+    <t>调入金额</t>
+  </si>
+  <si>
+    <t>调出箱数</t>
+  </si>
+  <si>
+    <t>调出数量</t>
+  </si>
+  <si>
+    <t>调出金额</t>
+  </si>
+  <si>
+    <t>合计数量</t>
+  </si>
+  <si>
+    <t>合计金额</t>
+  </si>
+  <si>
+    <t>${obj.skuCode}</t>
   </si>
   <si>
     <t>${obj.skuName}</t>
@@ -78,104 +122,55 @@
     <t>${obj.barCode}</t>
   </si>
   <si>
+    <t>${obj.categoryCode}</t>
+  </si>
+  <si>
+    <t>${obj.categoryName}</t>
+  </si>
+  <si>
+    <t>${obj.spec}</t>
+  </si>
+  <si>
     <t>${obj.unit}</t>
   </si>
   <si>
-    <t>${obj.spec}</t>
-  </si>
-  <si>
-    <t>${obj.skuCode}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别编码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.categoryCode}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.categoryName}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.receiveLargeNum}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>调入箱数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${obj.receiveNum}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>调入数量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>调入金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${obj.receiveAmount}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${obj.dealLargeNum}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>调出箱数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${obj.dealNum}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>调出数量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${obj.dealAmount}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>调出金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计数量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${obj.sumNum}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${obj.sumAmount}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,18 +197,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,12 +357,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -250,39 +571,326 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -329,7 +937,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,7 +972,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,334 +1180,338 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="5" width="15.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="2" customWidth="1"/>
+    <col min="3" max="4" width="15.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="21.75" style="7" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="7" customWidth="1"/>
-    <col min="13" max="13" width="22.875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="21.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="22.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="21.75" style="3" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:15">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="H2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="L2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="N2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>29</v>
-      </c>
+    <row r="3" ht="21" customHeight="1" spans="1:15">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+    <row r="4" ht="21" customHeight="1" spans="1:15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+    <row r="5" ht="21" customHeight="1" spans="1:15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
-    <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+    <row r="6" ht="21" customHeight="1" spans="1:15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
-    <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+    <row r="7" ht="21" customHeight="1" spans="1:15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
-    <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+    <row r="8" ht="21" customHeight="1" spans="1:15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
-    <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+    <row r="9" ht="21" customHeight="1" spans="1:15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
-    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+    <row r="10" ht="21" customHeight="1" spans="1:15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
-    <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" ht="13.5" customHeight="1"/>
+    <row r="12" ht="13.5" customHeight="1"/>
+    <row r="13" ht="13.5" customHeight="1"/>
+    <row r="14" ht="13.5" customHeight="1"/>
+    <row r="15" ht="13.5" customHeight="1"/>
+    <row r="16" ht="13.5" customHeight="1"/>
+    <row r="17" ht="13.5" customHeight="1"/>
+    <row r="18" ht="13.5" customHeight="1"/>
+    <row r="19" ht="13.5" customHeight="1"/>
+    <row r="20" ht="13.5" customHeight="1"/>
+    <row r="21" ht="13.5" customHeight="1"/>
+    <row r="22" ht="13.5" customHeight="1"/>
+    <row r="23" ht="13.5" customHeight="1"/>
+    <row r="24" ht="13.5" customHeight="1"/>
+    <row r="25" ht="13.5" customHeight="1"/>
+    <row r="26" ht="13.5" customHeight="1"/>
+    <row r="27" ht="13.5" customHeight="1"/>
+    <row r="28" ht="13.5" customHeight="1"/>
+    <row r="29" ht="13.5" customHeight="1"/>
+    <row r="30" ht="13.5" customHeight="1"/>
+    <row r="31" ht="13.5" customHeight="1"/>
+    <row r="32" ht="13.5" customHeight="1"/>
+    <row r="33" ht="13.5" customHeight="1"/>
+    <row r="34" ht="13.5" customHeight="1"/>
+    <row r="35" ht="13.5" customHeight="1"/>
+    <row r="36" ht="13.5" customHeight="1"/>
+    <row r="37" ht="13.5" customHeight="1"/>
+    <row r="38" ht="13.5" customHeight="1"/>
+    <row r="39" ht="13.5" customHeight="1"/>
+    <row r="40" ht="13.5" customHeight="1"/>
+    <row r="41" ht="13.5" customHeight="1"/>
+    <row r="42" ht="13.5" customHeight="1"/>
+    <row r="43" ht="13.5" customHeight="1"/>
+    <row r="44" ht="13.5" customHeight="1"/>
+    <row r="45" ht="13.5" customHeight="1"/>
+    <row r="46" ht="13.5" customHeight="1"/>
+    <row r="47" ht="13.5" customHeight="1"/>
+    <row r="48" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
+++ b/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
@@ -164,11 +164,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -205,15 +205,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +266,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -249,14 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -266,83 +342,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,103 +363,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,66 +544,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,13 +572,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,16 +596,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -640,23 +644,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,8 +664,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -823,21 +823,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1184,21 +1184,22 @@
   <sheetPr/>
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.75" style="2" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.25" style="3" customWidth="1"/>
     <col min="9" max="9" width="19.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.75" style="3" customWidth="1"/>
     <col min="11" max="11" width="21.75" style="3" customWidth="1"/>
     <col min="12" max="12" width="19.5" style="3" customWidth="1"/>
     <col min="13" max="13" width="22.875" style="3" customWidth="1"/>

--- a/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
+++ b/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
@@ -162,13 +162,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -204,47 +203,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,67 +272,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,21 +346,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -363,6 +362,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,36 +536,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,132 +543,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,17 +571,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,21 +585,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,15 +621,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -669,16 +638,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +686,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -823,11 +822,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -837,7 +836,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1184,8 +1183,8 @@
   <sheetPr/>
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:O2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
+++ b/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13200"/>
+    <workbookView windowWidth="23940" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,37 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="O2")</t>
+          <t>jx:area(lastCell="</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>O</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">3")
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +83,23 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="O2")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="O</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>")</t>
         </r>
       </text>
     </comment>
@@ -66,7 +108,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+  <si>
+    <t>配送汇总查询-商品查询</t>
+  </si>
   <si>
     <t>货号</t>
   </si>
@@ -107,10 +152,10 @@
     <t>调出金额</t>
   </si>
   <si>
-    <t>合计数量</t>
-  </si>
-  <si>
-    <t>合计金额</t>
+    <t>数量小计</t>
+  </si>
+  <si>
+    <t>金额小计</t>
   </si>
   <si>
     <t>${obj.skuCode}</t>
@@ -163,11 +208,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -191,36 +236,103 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,20 +353,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,78 +370,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -362,31 +407,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,151 +551,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,24 +612,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,6 +646,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -635,21 +695,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,10 +719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,153 +731,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1181,10 +1229,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1207,237 +1255,255 @@
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:15">
+    <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:15">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:15">
-      <c r="A2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
     </row>
     <row r="8" ht="21" customHeight="1" spans="1:15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" ht="21" customHeight="1" spans="1:15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" ht="21" customHeight="1" spans="1:15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1"/>
+    <row r="11" ht="21" customHeight="1" spans="1:15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+    </row>
     <row r="12" ht="13.5" customHeight="1"/>
     <row r="13" ht="13.5" customHeight="1"/>
     <row r="14" ht="13.5" customHeight="1"/>
@@ -1508,7 +1574,11 @@
     <row r="79" ht="13.5" customHeight="1"/>
     <row r="80" ht="13.5" customHeight="1"/>
     <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
+++ b/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23940" windowHeight="4590"/>
+    <workbookView windowWidth="27570" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <oleSize ref="A1:L11"/>
 </workbook>
 </file>
 
@@ -28,40 +29,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">YSCGD:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>O</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">3")
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+jx:area(lastCell="O3")
 </t>
         </r>
       </text>
@@ -74,32 +42,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">YSCGD:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="O</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>")</t>
+          <t>YSCGD:
+jx:each(items="reportList" var="obj" lastCell="O3")</t>
         </r>
       </text>
     </comment>
@@ -209,10 +153,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -236,20 +180,46 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,12 +234,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -278,14 +271,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,27 +286,12 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -322,17 +300,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,22 +309,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,24 +322,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,7 +346,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,169 +448,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,17 +561,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,39 +615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -686,6 +622,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,17 +650,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,160 +676,155 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1229,33 +1169,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="19.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.75" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.75" style="3" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="22.875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="15.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="21.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="2" customWidth="1"/>
+    <col min="4" max="7" width="12.625" style="2" customWidth="1"/>
+    <col min="8" max="15" width="12.625" style="3" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" ht="30" customHeight="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1204,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:15">
+    <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1296,214 +1226,86 @@
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="21" customHeight="1" spans="1:15">
-      <c r="A3" s="7" t="s">
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="21" customHeight="1" spans="1:15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" ht="21" customHeight="1" spans="1:15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" ht="21" customHeight="1" spans="1:15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-    </row>
-    <row r="7" ht="21" customHeight="1" spans="1:15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" ht="21" customHeight="1" spans="1:15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" ht="21" customHeight="1" spans="1:15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" ht="21" customHeight="1" spans="1:15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" ht="21" customHeight="1" spans="1:15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-    </row>
+    <row r="4" ht="13.5" customHeight="1"/>
+    <row r="5" ht="13.5" customHeight="1"/>
+    <row r="6" ht="13.5" customHeight="1"/>
+    <row r="7" ht="13.5" customHeight="1"/>
+    <row r="8" ht="13.5" customHeight="1"/>
+    <row r="9" ht="13.5" customHeight="1"/>
+    <row r="10" ht="13.5" customHeight="1"/>
+    <row r="11" ht="13.5" customHeight="1"/>
     <row r="12" ht="13.5" customHeight="1"/>
     <row r="13" ht="13.5" customHeight="1"/>
     <row r="14" ht="13.5" customHeight="1"/>
@@ -1567,14 +1369,6 @@
     <row r="72" ht="13.5" customHeight="1"/>
     <row r="73" ht="13.5" customHeight="1"/>
     <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>

--- a/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
+++ b/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,10 +30,11 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">YSCGD:
-jx:area(lastCell="O4")
+jx:area(lastCell="O3")
 </t>
         </r>
       </text>
@@ -44,6 +45,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>配送汇总查询-商品查询</t>
   </si>
@@ -149,50 +151,14 @@
   </si>
   <si>
     <t>${obj.sumAmount}</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(H3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(I3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(J3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(K3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(L3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(M3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(N3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(O3)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -206,12 +172,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -219,6 +187,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -226,16 +195,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -281,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,83 +272,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -396,7 +297,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -431,7 +332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,7 +367,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -804,41 +705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
+    <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -908,7 +775,6 @@
     <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>

--- a/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
+++ b/src/main/resources/template/excel/export/deliverTotalByGoods.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,9 +60,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t>配送汇总查询-商品查询</t>
-  </si>
-  <si>
     <t>货号</t>
   </si>
   <si>
@@ -151,6 +148,10 @@
   </si>
   <si>
     <t>${obj.sumAmount}</t>
+  </si>
+  <si>
+    <t>${branchName}配送汇总查询-商品查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -278,6 +279,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -297,7 +366,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -579,7 +648,7 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -594,7 +663,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -613,96 +682,96 @@
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
